--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1996.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1996.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16984875728789</v>
+        <v>0.6844159960746765</v>
       </c>
       <c r="B1">
-        <v>2.210938200054724</v>
+        <v>1.560806274414062</v>
       </c>
       <c r="C1">
-        <v>8.32786002474721</v>
+        <v>7.146332740783691</v>
       </c>
       <c r="D1">
-        <v>2.589591033841709</v>
+        <v>2.819880247116089</v>
       </c>
       <c r="E1">
-        <v>1.217902035860995</v>
+        <v>1.647903919219971</v>
       </c>
     </row>
   </sheetData>
